--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,33 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shadi/Desktop/shadi/code/SnakeAI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F576EC-5332-474E-9C11-734FA250D7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="2925" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Attempt</t>
+  </si>
+  <si>
+    <t>MAX_MEMORY</t>
+  </si>
+  <si>
+    <t>BATCH_SIZE</t>
+  </si>
+  <si>
+    <t>LEARNING_RATE</t>
+  </si>
+  <si>
+    <t>max_exploration_rate</t>
+  </si>
+  <si>
+    <t>min_exploration_rate</t>
+  </si>
+  <si>
+    <t>exploration_decay_rate</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>hidden_layers</t>
+  </si>
+  <si>
+    <t>far_dangers</t>
+  </si>
+  <si>
+    <t>number_of_games</t>
+  </si>
+  <si>
+    <t>highscore</t>
+  </si>
+  <si>
+    <t>mean_score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +95,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,172 +375,634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="14.7109375" customWidth="1" min="1" max="1"/>
-    <col width="15.5703125" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="20.5703125" customWidth="1" min="5" max="5"/>
-    <col width="20.85546875" customWidth="1" min="6" max="6"/>
-    <col width="23.42578125" customWidth="1" min="7" max="7"/>
-    <col width="8.7109375" customWidth="1" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" min="9" max="9"/>
-    <col width="11.42578125" customWidth="1" min="10" max="10"/>
-    <col width="17.85546875" customWidth="1" min="11" max="11"/>
-    <col width="11.5703125" customWidth="1" min="12" max="12"/>
-    <col width="11.28515625" customWidth="1" min="13" max="13"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Attempt</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MAX_MEMORY</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BATCH_SIZE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LEARNING_RATE</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>max_exploration_rate</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>min_exploration_rate</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>exploration_decay_rate</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>hidden_layers</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>far_dangers</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>number_of_games</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>highscore</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>mean_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>100000</v>
       </c>
-      <c r="C2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>2E-3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0.01</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.05</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.8</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>450</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>100000</v>
       </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>2E-3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0.01</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.05</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.8</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>450</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.05</v>
+      </c>
+      <c r="H4">
+        <v>0.9</v>
+      </c>
+      <c r="I4">
+        <v>450</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>400</v>
+      </c>
+      <c r="L4">
+        <v>55</v>
+      </c>
+      <c r="M4">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2E-3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <v>0.03</v>
+      </c>
+      <c r="H5">
+        <v>0.85</v>
+      </c>
+      <c r="I5">
+        <v>700</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>400</v>
+      </c>
+      <c r="L5">
+        <v>52</v>
+      </c>
+      <c r="M5">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>0.03</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>700</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>400</v>
+      </c>
+      <c r="L6">
+        <v>49</v>
+      </c>
+      <c r="M6">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>100000</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>2E-3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>0.03</v>
+      </c>
+      <c r="H7">
+        <v>0.85</v>
+      </c>
+      <c r="I7">
+        <v>700</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>400</v>
+      </c>
+      <c r="L7">
+        <v>59</v>
+      </c>
+      <c r="M7">
+        <v>15.815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>500000</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>700</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>400</v>
+      </c>
+      <c r="L8">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>100000</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.04</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>400</v>
+      </c>
+      <c r="L9">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>11.512499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5000000</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>1E-3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1E-4</v>
+      </c>
+      <c r="G10">
+        <v>0.03</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>400</v>
+      </c>
+      <c r="L10">
+        <v>62</v>
+      </c>
+      <c r="M10">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>2E-3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>450</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>100000</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>450</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>400</v>
+      </c>
+      <c r="L12">
+        <v>56</v>
+      </c>
+      <c r="M12">
+        <v>19.155000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1000000</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G13">
+        <v>0.04</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <v>700</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>400</v>
+      </c>
+      <c r="L13">
+        <v>59</v>
+      </c>
+      <c r="M13">
+        <v>20.3825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>100000</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>1E-3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>700</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>400</v>
+      </c>
+      <c r="L14">
+        <v>53</v>
+      </c>
+      <c r="M14">
+        <v>19.912500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5000000</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1E-3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>700</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>400</v>
+      </c>
+      <c r="L15">
+        <v>68</v>
+      </c>
+      <c r="M15">
+        <v>21.2775</v>
       </c>
     </row>
   </sheetData>
